--- a/7RMart/src/test/resources/TestData.xlsx
+++ b/7RMart/src/test/resources/TestData.xlsx
@@ -5,16 +5,17 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sandr\eclipse-workspace\7RMart\src\test\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sandr\git\7RMSuperMarket\7RMart\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5D4F166-E929-4D2E-8363-EBBD56B2EEF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2830D16-427A-43F6-A072-57C24CDC1760}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{87B6F113-3F62-4A71-A188-48EFDBD17E5D}"/>
   </bookViews>
   <sheets>
     <sheet name="LoginPage" sheetId="1" r:id="rId1"/>
     <sheet name="AdminUserPage" sheetId="2" r:id="rId2"/>
+    <sheet name="CategoryInfo" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="13">
   <si>
     <t>Sandra</t>
   </si>
@@ -56,6 +57,24 @@
   </si>
   <si>
     <t>pass123</t>
+  </si>
+  <si>
+    <t>CategoryName</t>
+  </si>
+  <si>
+    <t>CategoryImagePath</t>
+  </si>
+  <si>
+    <t>Flowers</t>
+  </si>
+  <si>
+    <t>C:\\Users\\sandr\\eclipse-workspace\\7RMart\\src\\test\\resources\\istockphoto-2189955809-1024x1024.jpg</t>
+  </si>
+  <si>
+    <t>UserType</t>
+  </si>
+  <si>
+    <t>Admin</t>
   </si>
 </sst>
 </file>
@@ -469,28 +488,69 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4EA5F54A-5CC9-4D91-9E1E-B8ABB78F4908}">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1788DD03-8E6D-4A01-841D-03F94AD078E3}">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="93.5546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="B1" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/7RMart/src/test/resources/TestData.xlsx
+++ b/7RMart/src/test/resources/TestData.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sandr\git\7RMSuperMarket\7RMart\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2830D16-427A-43F6-A072-57C24CDC1760}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B9429DD-AF90-4E03-A24D-D522EDB63AF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{87B6F113-3F62-4A71-A188-48EFDBD17E5D}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{87B6F113-3F62-4A71-A188-48EFDBD17E5D}"/>
   </bookViews>
   <sheets>
     <sheet name="LoginPage" sheetId="1" r:id="rId1"/>
     <sheet name="AdminUserPage" sheetId="2" r:id="rId2"/>
-    <sheet name="CategoryInfo" sheetId="3" r:id="rId3"/>
+    <sheet name="NewsInfo" sheetId="4" r:id="rId3"/>
+    <sheet name="CategoryInfo" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="15">
   <si>
     <t>Sandra</t>
   </si>
@@ -75,6 +76,12 @@
   </si>
   <si>
     <t>Admin</t>
+  </si>
+  <si>
+    <t>News</t>
+  </si>
+  <si>
+    <t>Demo News for 7RM.</t>
   </si>
 </sst>
 </file>
@@ -490,7 +497,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4EA5F54A-5CC9-4D91-9E1E-B8ABB78F4908}">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
@@ -524,6 +531,34 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B225E75E-CF62-4AE4-B18C-7B74F764677C}">
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="18.77734375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1788DD03-8E6D-4A01-841D-03F94AD078E3}">
   <dimension ref="A1:B2"/>
   <sheetViews>

--- a/7RMart/src/test/resources/TestData.xlsx
+++ b/7RMart/src/test/resources/TestData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sandr\git\7RMSuperMarket\7RMart\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B9429DD-AF90-4E03-A24D-D522EDB63AF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D5DAF7B-0E76-4DCE-8989-6EE9A27D392D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{87B6F113-3F62-4A71-A188-48EFDBD17E5D}"/>
   </bookViews>
@@ -534,9 +534,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B225E75E-CF62-4AE4-B18C-7B74F764677C}">
   <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
